--- a/dates1.xlsx
+++ b/dates1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учеба\5й сем\Прикладной статистический анализ\lab1\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учеба\5й сем\Прикладной статистический анализ\mylab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED69B7FA-532B-4F33-ABB6-D5C8CE7A65B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F09B20-CB47-4E04-A6CB-8B354A178938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="15660" windowHeight="11820" activeTab="1" xr2:uid="{BD952687-5001-4006-9229-1798C80EBCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>2022-08-01'</t>
   </si>
@@ -181,13 +182,24 @@
   </si>
   <si>
     <t>Free rooms</t>
+  </si>
+  <si>
+    <t>Номер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,15 +209,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -213,15 +231,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% — акцент1" xfId="1" builtinId="30"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,407 +572,1074 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326C94F6-D704-45DA-85E4-22DAEA91DBD0}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="1">
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="1">
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="1">
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="1">
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="1">
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="1">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="1">
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="1">
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="1">
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="C22" s="1">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="C23" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="C25" s="1">
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="C26" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F3866C-981C-4CCE-A145-0729417719D2}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>340</v>
+      </c>
+      <c r="D2" s="4">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>340</v>
+      </c>
+      <c r="G2" s="4">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>341</v>
+      </c>
+      <c r="D3" s="4">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>341</v>
+      </c>
+      <c r="G3" s="4">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>339</v>
+      </c>
+      <c r="D4" s="4">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>339</v>
+      </c>
+      <c r="G4" s="4">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>340</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>335</v>
+      </c>
+      <c r="G5" s="4">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>342</v>
+      </c>
+      <c r="D6" s="4">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>338</v>
+      </c>
+      <c r="G6" s="4">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>341</v>
+      </c>
+      <c r="D7" s="4">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>342</v>
+      </c>
+      <c r="G7" s="4">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>345</v>
+      </c>
+      <c r="D8" s="4">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>340</v>
+      </c>
+      <c r="G8" s="4">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>346</v>
+      </c>
+      <c r="D9" s="4">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1">
+        <v>339</v>
+      </c>
+      <c r="G9" s="4">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>349</v>
+      </c>
+      <c r="D10" s="4">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="G10" s="4">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>348</v>
+      </c>
+      <c r="D11" s="4">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="F11" s="1">
         <v>321</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="G11" s="4">
+        <v>42</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>347</v>
+      </c>
+      <c r="D12" s="4">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="F12" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="G12" s="4">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>352</v>
+      </c>
+      <c r="D13" s="4">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="F13" s="1">
         <v>323</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="G13" s="4">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>342</v>
+      </c>
+      <c r="D14" s="4">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="F14" s="1">
         <v>322</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="G14" s="4">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>342</v>
+      </c>
+      <c r="D15" s="4">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="F15" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="G15" s="4">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>343</v>
+      </c>
+      <c r="D16" s="4">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="F16" s="1">
         <v>338</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="G16" s="4">
+        <v>47</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>337</v>
+      </c>
+      <c r="D17" s="4">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="F17" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="G17" s="4">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="I17" s="1">
         <v>349</v>
       </c>
     </row>
